--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView yWindow="1800" windowWidth="9210" windowHeight="6555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="2" r:id="rId1"/>
@@ -301,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -351,32 +351,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,14 +375,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,9 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,23 +412,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,8 +443,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,6 +461,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,25 +518,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,25 +554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,31 +584,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,25 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,36 +691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -732,26 +702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,8 +724,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +799,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1319,7 +1319,7 @@
   <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -1360,8 +1360,8 @@
   <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView yWindow="1800" windowWidth="9210" windowHeight="6555" activeTab="1"/>
+    <workbookView windowWidth="21405" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>接口标签</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>上传申请用图片</t>
+  </si>
+  <si>
+    <t>/s/saveCommonApplyImage.action</t>
   </si>
   <si>
     <t>result</t>
@@ -352,16 +355,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,9 +377,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,30 +424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,7 +439,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,23 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +539,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,43 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,19 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,25 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,13 +653,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,6 +695,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -706,17 +724,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,15 +759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,11 +776,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,7 +793,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +802,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,7 +1323,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1360,8 +1363,8 @@
   <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="L152" sqref="L152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3573,11 +3576,11 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
@@ -3589,11 +3592,11 @@
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21405" windowHeight="9225" activeTab="1"/>
+    <workbookView windowWidth="21180" windowHeight="8670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="2" r:id="rId1"/>
@@ -361,6 +361,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -369,11 +377,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,18 +398,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,9 +422,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,13 +442,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,7 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,13 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +539,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,13 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,24 +588,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,13 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +623,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,37 +659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +726,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -773,15 +782,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,145 +790,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,8 +1363,8 @@
   <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="L152" sqref="L152"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,33 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21180" windowHeight="8670" activeTab="1"/>
+    <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
-    <sheet name="更新说明" sheetId="2" r:id="rId1"/>
-    <sheet name="通用申请" sheetId="1" r:id="rId2"/>
+    <sheet name="通用申请" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
-  <si>
-    <t>接口标签</t>
-  </si>
-  <si>
-    <t>接口名称</t>
-  </si>
-  <si>
-    <t>问题类型</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -304,8 +288,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -346,34 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,8 +352,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,31 +377,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +404,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,8 +438,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,13 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,13 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,19 +541,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,6 +583,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,12 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,49 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,15 +666,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,6 +680,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,18 +711,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -747,8 +720,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,6 +755,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,10 +774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,137 +786,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,9 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1320,51 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,7 +1318,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1414,25 +1354,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1441,29 +1381,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1475,20 +1415,20 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1500,16 +1440,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1528,11 +1468,11 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1549,18 +1489,18 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1596,25 +1536,25 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1623,29 +1563,29 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1657,20 +1597,20 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1682,16 +1622,16 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1705,20 +1645,20 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1735,11 +1675,11 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1756,18 +1696,18 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1803,25 +1743,25 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -1830,29 +1770,29 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -1864,20 +1804,20 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -1889,11 +1829,11 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -1910,11 +1850,11 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -1931,11 +1871,11 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -1952,11 +1892,11 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -1973,11 +1913,11 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -1994,7 +1934,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2013,11 +1953,11 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -2034,11 +1974,11 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -2055,11 +1995,11 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -2076,7 +2016,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -2095,11 +2035,11 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -2111,7 +2051,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2128,7 +2068,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -2155,32 +2095,32 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="11">
@@ -2189,34 +2129,34 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="11">
@@ -2230,25 +2170,25 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q74" s="10"/>
       <c r="R74" s="11">
@@ -2262,23 +2202,23 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
@@ -2290,20 +2230,20 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -2318,25 +2258,25 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q77" s="10"/>
       <c r="R77" s="11">
@@ -2355,16 +2295,16 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q78" s="10"/>
       <c r="R78" s="11">
@@ -2383,16 +2323,16 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q79" s="10"/>
       <c r="R79" s="11">
@@ -2411,11 +2351,11 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -2435,11 +2375,11 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -2459,7 +2399,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -2481,11 +2421,11 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -2505,11 +2445,11 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -2529,14 +2469,14 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O85" s="5"/>
     </row>
@@ -2552,14 +2492,14 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O86" s="5"/>
     </row>
@@ -2575,7 +2515,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -2594,18 +2534,18 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L88" s="7"/>
       <c r="M88" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2641,25 +2581,25 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -2668,29 +2608,29 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -2702,20 +2642,20 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -2727,16 +2667,16 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -2750,20 +2690,20 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -2775,20 +2715,20 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -2805,11 +2745,11 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -2826,11 +2766,11 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
@@ -2847,11 +2787,11 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -2868,11 +2808,11 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -2889,11 +2829,11 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -2910,7 +2850,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -2929,11 +2869,11 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L118" s="5"/>
       <c r="M118" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
@@ -2950,11 +2890,11 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
@@ -2971,11 +2911,11 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
@@ -2992,11 +2932,11 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
@@ -3013,7 +2953,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -3032,18 +2972,18 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L123" s="7"/>
       <c r="M123" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3079,25 +3019,25 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -3106,29 +3046,29 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L139" s="3"/>
       <c r="M139" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -3140,20 +3080,20 @@
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -3165,11 +3105,11 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -3186,11 +3126,11 @@
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -3207,11 +3147,11 @@
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -3228,11 +3168,11 @@
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -3244,7 +3184,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3280,25 +3220,25 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -3307,29 +3247,29 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L160" s="3"/>
       <c r="M160" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -3341,20 +3281,20 @@
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L161" s="3"/>
       <c r="M161" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -3366,11 +3306,11 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -3387,11 +3327,11 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -3408,11 +3348,11 @@
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -3429,11 +3369,11 @@
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -3445,7 +3385,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3481,25 +3421,25 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -3508,29 +3448,29 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L181" s="3"/>
       <c r="M181" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
@@ -3542,20 +3482,20 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L182" s="3"/>
       <c r="M182" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
@@ -3567,20 +3507,20 @@
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
@@ -3592,11 +3532,11 @@
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="10665"/>
+    <workbookView windowWidth="22260" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="通用申请" sheetId="1" r:id="rId1"/>
@@ -288,8 +288,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -330,36 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -376,16 +346,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,6 +383,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -407,8 +414,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,14 +440,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -447,14 +447,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,7 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +571,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,25 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,67 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,6 +666,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,55 +703,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +725,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -766,6 +757,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,145 +774,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="J194" sqref="J194"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22260" windowHeight="9735"/>
+    <workbookView windowWidth="19095" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="通用申请" sheetId="1" r:id="rId1"/>
@@ -330,11 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,6 +354,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -361,38 +368,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +398,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -422,17 +436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,17 +452,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -505,7 +505,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,19 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,79 +637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,37 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +703,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,30 +758,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -757,15 +766,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,10 +774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,133 +786,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="10275"/>
+    <workbookView windowWidth="18855" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="通用申请" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -332,6 +332,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -350,6 +365,37 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,46 +428,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -441,22 +457,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -505,7 +505,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +553,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -547,12 +607,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -565,37 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,19 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,24 +659,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -670,40 +670,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,16 +703,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,17 +766,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,145 +774,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="9705"/>
+    <workbookView windowWidth="22290" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="通用申请" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -208,13 +208,28 @@
     <t>等待审核</t>
   </si>
   <si>
+    <t>applyResult</t>
+  </si>
+  <si>
+    <t>申请状态(选填)</t>
+  </si>
+  <si>
     <t>审核通过</t>
   </si>
   <si>
     <t>审核不通过</t>
   </si>
   <si>
-    <t>applyResult</t>
+    <t>userImage</t>
+  </si>
+  <si>
+    <t>申请人头像</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>申请时间(时间戳)</t>
   </si>
   <si>
     <t>approveList 审批人列表(json数组)</t>
@@ -281,6 +296,12 @@
   </si>
   <si>
     <t>上传的图片</t>
+  </si>
+  <si>
+    <t>获取申请详情</t>
+  </si>
+  <si>
+    <t>/s/getCommonApply.action</t>
   </si>
 </sst>
 </file>
@@ -288,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -330,16 +351,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,33 +426,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,40 +457,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,24 +480,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,31 +526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +574,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,55 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,25 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,6 +699,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,47 +785,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,32 +799,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,137 +819,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,6 +982,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1301,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R184"/>
+  <dimension ref="A1:R220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83:O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2123,7 +2162,7 @@
         <v>52</v>
       </c>
       <c r="Q72" s="10"/>
-      <c r="R72" s="11">
+      <c r="R72" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2159,7 +2198,7 @@
         <v>54</v>
       </c>
       <c r="Q73" s="10"/>
-      <c r="R73" s="11">
+      <c r="R73" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2191,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="Q74" s="10"/>
-      <c r="R74" s="11">
+      <c r="R74" s="13">
         <v>12</v>
       </c>
     </row>
@@ -2279,7 +2318,7 @@
         <v>63</v>
       </c>
       <c r="Q77" s="10"/>
-      <c r="R77" s="11">
+      <c r="R77" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2289,11 +2328,15 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="F78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
         <v>34</v>
       </c>
@@ -2304,10 +2347,10 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q78" s="10"/>
-      <c r="R78" s="11">
+      <c r="R78" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2332,10 +2375,10 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q79" s="10"/>
-      <c r="R79" s="11">
+      <c r="R79" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2350,18 +2393,18 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
+      <c r="K80" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
-      <c r="R80" s="11"/>
+      <c r="R80" s="13"/>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="4"/>
@@ -2375,17 +2418,17 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
-      <c r="R81" s="11"/>
+      <c r="R81" s="13"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="4"/>
@@ -2398,16 +2441,18 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
+      <c r="K82" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
-      <c r="R82" s="11"/>
+      <c r="R82" s="13"/>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="4"/>
@@ -2420,18 +2465,18 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
+      <c r="K83" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
-      <c r="R83" s="11"/>
+      <c r="R83" s="13"/>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="4"/>
@@ -2445,19 +2490,17 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="L84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
-      <c r="R84" s="11"/>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="R84" s="13"/>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2469,18 +2512,19 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="N85" s="5"/>
       <c r="O85" s="5"/>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="13"/>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2492,16 +2536,17 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N86" s="5"/>
       <c r="O86" s="5"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="13"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="4"/>
@@ -2514,13 +2559,17 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
+      <c r="K87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="4"/>
@@ -2533,180 +2582,203 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="1" t="s">
+      <c r="K88" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="2" t="s">
+      <c r="L88" s="5"/>
+      <c r="M88" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2" t="s">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2" t="s">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
+      <c r="M109" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
+      <c r="P109" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
+      <c r="P110" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="4"/>
@@ -2714,22 +2786,20 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
+      <c r="F111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L111" s="3"/>
-      <c r="M111" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
     </row>
@@ -2739,17 +2809,21 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="F112" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
       <c r="K112" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -2760,17 +2834,21 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="F113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
       <c r="K113" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
@@ -2781,17 +2859,21 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="F114" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
       <c r="K114" s="3" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -2808,11 +2890,11 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -2829,11 +2911,11 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -2849,13 +2931,15 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
+      <c r="K117" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="4"/>
@@ -2868,15 +2952,15 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
+      <c r="K118" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="4"/>
@@ -2889,15 +2973,15 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
+      <c r="K119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="4"/>
@@ -2910,15 +2994,15 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
+      <c r="K120" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="4"/>
@@ -2932,12 +3016,10 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
@@ -2952,13 +3034,15 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
+      <c r="K122" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="4"/>
@@ -2971,583 +3055,1141 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="7" t="s">
+      <c r="K123" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7" t="s">
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="1" t="s">
+      <c r="L124" s="5"/>
+      <c r="M124" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="2" t="s">
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2" t="s">
+      <c r="G142" s="2"/>
+      <c r="H142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2" t="s">
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3" t="s">
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N140" s="3"/>
-      <c r="O140" s="3"/>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
-      <c r="N141" s="3"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
+      <c r="K143" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
+      <c r="M143" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="2" t="s">
+      <c r="K144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2" t="s">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2" t="s">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2" t="s">
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3" t="s">
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L160" s="3"/>
-      <c r="M160" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N160" s="3"/>
-      <c r="O160" s="3"/>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N161" s="3"/>
-      <c r="O161" s="3"/>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
-      <c r="O162" s="3"/>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
+      <c r="K164" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
+      <c r="M164" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
       <c r="F165" s="3" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-    </row>
-    <row r="178" spans="1:15">
-      <c r="A178" s="1" t="s">
+      <c r="K165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
+      <c r="K206" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+    </row>
+    <row r="207" spans="1:15">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-    </row>
-    <row r="179" spans="1:15">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-    </row>
-    <row r="180" spans="1:15">
-      <c r="A180" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-    </row>
-    <row r="181" spans="1:15">
-      <c r="A181" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-    </row>
-    <row r="182" spans="1:15">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
-    </row>
-    <row r="183" spans="1:15">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
-    </row>
-    <row r="184" spans="1:15">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-      <c r="M184" s="4"/>
-      <c r="N184" s="4"/>
-      <c r="O184" s="4"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N210" s="11"/>
+      <c r="O210" s="11"/>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L213" s="3"/>
+      <c r="M213" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N213" s="12"/>
+      <c r="O213" s="12"/>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="5"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L215" s="5"/>
+      <c r="M215" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N215" s="5"/>
+      <c r="O215" s="5"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N217" s="5"/>
+      <c r="O217" s="5"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N218" s="5"/>
+      <c r="O218" s="5"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L219" s="7"/>
+      <c r="M219" s="7"/>
+      <c r="N219" s="7"/>
+      <c r="O219" s="7"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L220" s="7"/>
+      <c r="M220" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N220" s="7"/>
+      <c r="O220" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="278">
+  <mergeCells count="347">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3672,6 +4314,8 @@
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:O77"/>
     <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="P78:Q78"/>
@@ -3680,152 +4324,219 @@
     <mergeCell ref="P79:Q79"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:O80"/>
-    <mergeCell ref="P80:Q80"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="M81:O81"/>
     <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="K82:O82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:O82"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="K84:O84"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P85:Q85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:O86"/>
-    <mergeCell ref="K87:O87"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:O87"/>
     <mergeCell ref="K88:L88"/>
     <mergeCell ref="M88:O88"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:O106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A108:D108"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="K108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:D109"/>
     <mergeCell ref="F109:G109"/>
     <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="P109:Q109"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="M110:O110"/>
+    <mergeCell ref="P110:Q110"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="H111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="K111:O111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
     <mergeCell ref="K112:L112"/>
     <mergeCell ref="M112:O112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:J113"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:J114"/>
     <mergeCell ref="K114:L114"/>
     <mergeCell ref="M114:O114"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
-    <mergeCell ref="K117:O117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:O117"/>
     <mergeCell ref="K118:L118"/>
     <mergeCell ref="M118:O118"/>
     <mergeCell ref="K119:L119"/>
     <mergeCell ref="M119:O119"/>
     <mergeCell ref="K120:L120"/>
     <mergeCell ref="M120:O120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="K122:O122"/>
+    <mergeCell ref="K121:O121"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:O122"/>
     <mergeCell ref="K123:L123"/>
     <mergeCell ref="M123:O123"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:O138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:O141"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="K126:O126"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="A142:D142"/>
     <mergeCell ref="F142:G142"/>
     <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="M142:O142"/>
+    <mergeCell ref="K142:O142"/>
+    <mergeCell ref="A143:D143"/>
     <mergeCell ref="F143:G143"/>
     <mergeCell ref="H143:J143"/>
     <mergeCell ref="K143:L143"/>
     <mergeCell ref="M143:O143"/>
     <mergeCell ref="F144:G144"/>
     <mergeCell ref="H144:J144"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="K159:O159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:O161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="K162:O162"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="M144:O144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:O145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="A163:D163"/>
     <mergeCell ref="F163:G163"/>
     <mergeCell ref="H163:J163"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="K163:O163"/>
+    <mergeCell ref="A164:D164"/>
     <mergeCell ref="F164:G164"/>
     <mergeCell ref="H164:J164"/>
     <mergeCell ref="K164:L164"/>
     <mergeCell ref="M164:O164"/>
     <mergeCell ref="F165:G165"/>
     <mergeCell ref="H165:J165"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="H180:J180"/>
-    <mergeCell ref="K180:O180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="H181:J181"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="H182:J182"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:O165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="K166:O166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:O167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:O168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="H169:J169"/>
+    <mergeCell ref="A184:D184"/>
     <mergeCell ref="F184:G184"/>
     <mergeCell ref="H184:J184"/>
+    <mergeCell ref="K184:O184"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="H185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:J187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:J188"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="K201:O201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:O202"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:O203"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="H204:J204"/>
+    <mergeCell ref="K204:O204"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="H205:J205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="H206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="M206:O206"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="H207:J207"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="M209:O209"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:O210"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:O213"/>
+    <mergeCell ref="K214:O214"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="M215:O215"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="M216:O216"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="M218:O218"/>
+    <mergeCell ref="K219:O219"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="M220:O220"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="A41:O42"/>
     <mergeCell ref="A70:O71"/>
     <mergeCell ref="P70:R71"/>
     <mergeCell ref="P75:R76"/>
-    <mergeCell ref="A104:O105"/>
-    <mergeCell ref="A136:O137"/>
-    <mergeCell ref="A157:O158"/>
-    <mergeCell ref="A178:O179"/>
+    <mergeCell ref="A106:O107"/>
+    <mergeCell ref="P106:R107"/>
+    <mergeCell ref="A140:O141"/>
+    <mergeCell ref="A161:O162"/>
+    <mergeCell ref="A182:O183"/>
+    <mergeCell ref="A199:O200"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135"/>
+    <workbookView windowWidth="22050" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="通用申请" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -184,48 +184,51 @@
     <t>申请失败</t>
   </si>
   <si>
+    <t>已审批</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>applyId</t>
+  </si>
+  <si>
+    <t>申请的Id</t>
+  </si>
+  <si>
     <t>审批状态</t>
   </si>
   <si>
-    <t>pageNum</t>
-  </si>
-  <si>
-    <t>页数</t>
-  </si>
-  <si>
-    <t>applyId</t>
-  </si>
-  <si>
-    <t>申请的Id</t>
-  </si>
-  <si>
     <t>pageSize</t>
   </si>
   <si>
     <t>每页商品数量</t>
   </si>
   <si>
+    <t>applyResult</t>
+  </si>
+  <si>
+    <t>申请状态(选填)</t>
+  </si>
+  <si>
     <t>等待审核</t>
   </si>
   <si>
-    <t>applyResult</t>
-  </si>
-  <si>
-    <t>申请状态(选填)</t>
-  </si>
-  <si>
     <t>审核通过</t>
   </si>
   <si>
+    <t>userImage</t>
+  </si>
+  <si>
+    <t>申请人头像</t>
+  </si>
+  <si>
     <t>审核不通过</t>
   </si>
   <si>
-    <t>userImage</t>
-  </si>
-  <si>
-    <t>申请人头像</t>
-  </si>
-  <si>
     <t>createDate</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
     <t>审批意见</t>
   </si>
   <si>
+    <t>审批人头像</t>
+  </si>
+  <si>
     <t>imageList 申请的图片列表(json数组)</t>
   </si>
   <si>
@@ -302,6 +308,12 @@
   </si>
   <si>
     <t>/s/getCommonApply.action</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>能否审批(1为可审批，2为不可审批)</t>
   </si>
 </sst>
 </file>
@@ -309,9 +321,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -352,22 +364,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,31 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,7 +402,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -428,9 +411,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,23 +426,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,14 +441,59 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,55 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +568,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +628,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,67 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,26 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,32 +734,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +762,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -799,6 +785,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,149 +813,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,9 +990,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1">
@@ -1340,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R220"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83:O83"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="M216" sqref="M216:O216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2162,7 +2165,7 @@
         <v>52</v>
       </c>
       <c r="Q72" s="10"/>
-      <c r="R72" s="13">
+      <c r="R72" s="12">
         <v>10</v>
       </c>
     </row>
@@ -2198,7 +2201,7 @@
         <v>54</v>
       </c>
       <c r="Q73" s="10"/>
-      <c r="R73" s="13">
+      <c r="R73" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2230,7 +2233,7 @@
         <v>55</v>
       </c>
       <c r="Q74" s="10"/>
-      <c r="R74" s="13">
+      <c r="R74" s="12">
         <v>12</v>
       </c>
     </row>
@@ -2256,11 +2259,13 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="9" t="s">
+      <c r="P75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="12">
+        <v>13</v>
+      </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="4"/>
@@ -2286,7 +2291,9 @@
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="9"/>
+      <c r="P76" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
     </row>
@@ -2297,11 +2304,11 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -2314,13 +2321,9 @@
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="13">
-        <v>20</v>
-      </c>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="4"/>
@@ -2350,8 +2353,8 @@
         <v>66</v>
       </c>
       <c r="Q78" s="10"/>
-      <c r="R78" s="13">
-        <v>21</v>
+      <c r="R78" s="12">
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -2378,8 +2381,8 @@
         <v>67</v>
       </c>
       <c r="Q79" s="10"/>
-      <c r="R79" s="13">
-        <v>22</v>
+      <c r="R79" s="12">
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -2402,9 +2405,13 @@
       </c>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
-      <c r="P80" s="10"/>
+      <c r="P80" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="Q80" s="10"/>
-      <c r="R80" s="13"/>
+      <c r="R80" s="12">
+        <v>22</v>
+      </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="4"/>
@@ -2428,7 +2435,7 @@
       <c r="O81" s="3"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
-      <c r="R81" s="13"/>
+      <c r="R81" s="12"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="4"/>
@@ -2452,7 +2459,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
-      <c r="R82" s="13"/>
+      <c r="R82" s="12"/>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="4"/>
@@ -2466,17 +2473,17 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L83" s="3"/>
-      <c r="M83" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
+      <c r="M83" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
-      <c r="R83" s="13"/>
+      <c r="R83" s="12"/>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="4"/>
@@ -2490,7 +2497,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -2498,7 +2505,7 @@
       <c r="O84" s="5"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
-      <c r="R84" s="13"/>
+      <c r="R84" s="12"/>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="4"/>
@@ -2522,7 +2529,7 @@
       <c r="O85" s="5"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
-      <c r="R85" s="13"/>
+      <c r="R85" s="12"/>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="4"/>
@@ -2540,15 +2547,15 @@
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
-      <c r="R86" s="13"/>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="R86" s="12"/>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2560,18 +2567,21 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O87" s="5"/>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="12"/>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2583,18 +2593,21 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O88" s="5"/>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="12"/>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2605,15 +2618,20 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="K89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="12"/>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2625,41 +2643,44 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L90" s="7"/>
-      <c r="M90" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="A106" s="1" t="s">
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="12"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="12"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2674,232 +2695,255 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="9"/>
+      <c r="P107" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2" t="s">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2" t="s">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="10" t="s">
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="13">
+      <c r="Q109" s="10"/>
+      <c r="R109" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
-      <c r="A109" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="13">
-        <v>11</v>
-      </c>
-    </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="3"/>
+      <c r="A110" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F110" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q110" s="10"/>
-      <c r="R110" s="13">
+      <c r="R110" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
+      <c r="M111" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
+      <c r="F112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
       <c r="K112" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="L112" s="3"/>
-      <c r="M112" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="F114" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
       <c r="K114" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
+      <c r="F115" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
       <c r="K115" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2911,16 +2955,23 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="3" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="P116" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2931,17 +2982,24 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="K117" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2952,17 +3010,20 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="K118" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="12"/>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2974,16 +3035,19 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="12"/>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2995,16 +3059,19 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="3" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="L120" s="3"/>
-      <c r="M120" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="M120" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="12"/>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3015,15 +3082,20 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="5" t="s">
+      <c r="K121" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="12"/>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3035,16 +3107,17 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="5" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="L122" s="5"/>
-      <c r="M122" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="12"/>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3056,16 +3129,19 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L123" s="5"/>
       <c r="M123" s="5" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="12"/>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3077,16 +3153,19 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="5" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L124" s="5"/>
       <c r="M124" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="12"/>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3102,12 +3181,15 @@
       </c>
       <c r="L125" s="5"/>
       <c r="M125" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="12"/>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3118,15 +3200,20 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="7" t="s">
+      <c r="K126" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="12"/>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3137,172 +3224,179 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="7" t="s">
+      <c r="K127" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7" t="s">
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="12"/>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="12"/>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="12"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2" t="s">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2" t="s">
+      <c r="G144" s="2"/>
+      <c r="H144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2" t="s">
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3" t="s">
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L143" s="3"/>
-      <c r="M143" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N144" s="3"/>
-      <c r="O144" s="3"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+      <c r="K145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
+      <c r="M145" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+      <c r="K146" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
+      <c r="M146" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
     </row>
@@ -3313,11 +3407,11 @@
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="3" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -3334,176 +3428,176 @@
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2" t="s">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2" t="s">
+      <c r="G165" s="2"/>
+      <c r="H165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2" t="s">
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3" t="s">
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
+      <c r="K166" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
+      <c r="M166" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
+      <c r="K167" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
+      <c r="M167" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
     </row>
@@ -3514,11 +3608,11 @@
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="3" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -3535,344 +3629,338 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-    </row>
-    <row r="182" spans="1:15">
-      <c r="A182" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-    </row>
-    <row r="183" spans="1:15">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2" t="s">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F184" s="2" t="s">
+      <c r="F186" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2" t="s">
+      <c r="G186" s="2"/>
+      <c r="H186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2" t="s">
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-    </row>
-    <row r="185" spans="1:15">
-      <c r="A185" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3" t="s">
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F187" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N185" s="3"/>
-      <c r="O185" s="3"/>
-    </row>
-    <row r="186" spans="1:15">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L186" s="3"/>
-      <c r="M186" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N186" s="3"/>
-      <c r="O186" s="3"/>
-    </row>
-    <row r="187" spans="1:15">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="L187" s="3"/>
       <c r="M187" s="3" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
       <c r="F188" s="3" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-    </row>
-    <row r="199" spans="1:15">
-      <c r="A199" s="1" t="s">
+      <c r="K188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-    </row>
-    <row r="200" spans="1:15">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2" t="s">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="F203" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2" t="s">
+      <c r="G203" s="2"/>
+      <c r="H203" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2" t="s">
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-    </row>
-    <row r="202" spans="1:15">
-      <c r="A202" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3" t="s">
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F204" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N202" s="3"/>
-      <c r="O202" s="3"/>
-    </row>
-    <row r="203" spans="1:15">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N203" s="3"/>
-      <c r="O203" s="3"/>
-    </row>
-    <row r="204" spans="1:15">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
+      <c r="M204" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
       <c r="F205" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="L205" s="3"/>
       <c r="M205" s="3" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
@@ -3883,18 +3971,20 @@
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
+      <c r="F206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
       <c r="K206" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L206" s="3"/>
-      <c r="M206" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
     </row>
@@ -3904,17 +3994,21 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="3"/>
+      <c r="F207" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+      <c r="H207" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="L207" s="3"/>
       <c r="M207" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
@@ -3925,17 +4019,17 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
       <c r="K208" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L208" s="3"/>
       <c r="M208" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
@@ -3946,17 +4040,17 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
-      <c r="I209" s="4"/>
-      <c r="J209" s="4"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
       <c r="K209" s="3" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="L209" s="3"/>
       <c r="M209" s="3" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
@@ -3972,15 +4066,15 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L210" s="11"/>
-      <c r="M210" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N210" s="11"/>
-      <c r="O210" s="11"/>
+      <c r="K210" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="4"/>
@@ -3994,11 +4088,11 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="L211" s="3"/>
       <c r="M211" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
@@ -4014,15 +4108,15 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
+      <c r="K212" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N212" s="11"/>
+      <c r="O212" s="11"/>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="4"/>
@@ -4036,14 +4130,14 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L213" s="3"/>
-      <c r="M213" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
+      <c r="M213" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="4"/>
@@ -4056,13 +4150,15 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L214" s="5"/>
-      <c r="M214" s="5"/>
-      <c r="N214" s="5"/>
-      <c r="O214" s="5"/>
+      <c r="K214" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="4"/>
@@ -4075,15 +4171,15 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L215" s="5"/>
-      <c r="M215" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N215" s="5"/>
-      <c r="O215" s="5"/>
+      <c r="K215" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L215" s="3"/>
+      <c r="M215" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N215" s="11"/>
+      <c r="O215" s="11"/>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="4"/>
@@ -4096,15 +4192,15 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L216" s="5"/>
-      <c r="M216" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N216" s="5"/>
-      <c r="O216" s="5"/>
+      <c r="K216" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L216" s="3"/>
+      <c r="M216" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N216" s="11"/>
+      <c r="O216" s="11"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="4"/>
@@ -4118,12 +4214,10 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L217" s="5"/>
-      <c r="M217" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="M217" s="5"/>
       <c r="N217" s="5"/>
       <c r="O217" s="5"/>
     </row>
@@ -4139,11 +4233,11 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="5" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="L218" s="5"/>
       <c r="M218" s="5" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
@@ -4159,13 +4253,15 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L219" s="7"/>
-      <c r="M219" s="7"/>
-      <c r="N219" s="7"/>
-      <c r="O219" s="7"/>
+      <c r="K219" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="4"/>
@@ -4178,18 +4274,142 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="7" t="s">
+      <c r="K220" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N221" s="5"/>
+      <c r="O221" s="5"/>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N222" s="5"/>
+      <c r="O222" s="5"/>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L220" s="7"/>
-      <c r="M220" s="7" t="s">
+      <c r="N223" s="5"/>
+      <c r="O223" s="5"/>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N224" s="5"/>
+      <c r="O224" s="5"/>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N220" s="7"/>
-      <c r="O220" s="7"/>
+      <c r="L225" s="7"/>
+      <c r="M225" s="7"/>
+      <c r="N225" s="7"/>
+      <c r="O225" s="7"/>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L226" s="7"/>
+      <c r="M226" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N226" s="7"/>
+      <c r="O226" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="382">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4305,6 +4525,7 @@
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="K75:O75"/>
+    <mergeCell ref="P75:Q75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="K76:L76"/>
@@ -4313,7 +4534,6 @@
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:O77"/>
-    <mergeCell ref="P77:Q77"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:L78"/>
@@ -4324,6 +4544,7 @@
     <mergeCell ref="P79:Q79"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:O80"/>
+    <mergeCell ref="P80:Q80"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="M81:O81"/>
     <mergeCell ref="P81:Q81"/>
@@ -4342,22 +4563,24 @@
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:Q87"/>
     <mergeCell ref="K88:L88"/>
     <mergeCell ref="M88:O88"/>
-    <mergeCell ref="K89:O89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:O108"/>
-    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="K90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="P91:Q91"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="F109:G109"/>
     <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="K109:O109"/>
     <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:D110"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
     <mergeCell ref="K110:L110"/>
@@ -4365,11 +4588,13 @@
     <mergeCell ref="P110:Q110"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="H111:J111"/>
-    <mergeCell ref="K111:O111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="P111:Q111"/>
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="K112:O112"/>
+    <mergeCell ref="P112:Q112"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:J113"/>
     <mergeCell ref="K113:L113"/>
@@ -4378,131 +4603,148 @@
     <mergeCell ref="H114:J114"/>
     <mergeCell ref="K114:L114"/>
     <mergeCell ref="M114:O114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:J115"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
+    <mergeCell ref="P115:Q115"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
+    <mergeCell ref="P116:Q116"/>
     <mergeCell ref="K117:L117"/>
     <mergeCell ref="M117:O117"/>
+    <mergeCell ref="P117:Q117"/>
     <mergeCell ref="K118:L118"/>
     <mergeCell ref="M118:O118"/>
+    <mergeCell ref="P118:Q118"/>
     <mergeCell ref="K119:L119"/>
     <mergeCell ref="M119:O119"/>
+    <mergeCell ref="P119:Q119"/>
     <mergeCell ref="K120:L120"/>
     <mergeCell ref="M120:O120"/>
-    <mergeCell ref="K121:O121"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="K122:O122"/>
+    <mergeCell ref="P122:Q122"/>
     <mergeCell ref="K123:L123"/>
     <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:Q123"/>
     <mergeCell ref="K124:L124"/>
     <mergeCell ref="M124:O124"/>
+    <mergeCell ref="P124:Q124"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
-    <mergeCell ref="K126:O126"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="P126:Q126"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="M127:O127"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:O142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:O143"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="K128:O128"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A144:D144"/>
     <mergeCell ref="F144:G144"/>
     <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="M144:O144"/>
+    <mergeCell ref="K144:O144"/>
+    <mergeCell ref="A145:D145"/>
     <mergeCell ref="F145:G145"/>
     <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:O145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:O145"/>
     <mergeCell ref="F146:G146"/>
     <mergeCell ref="H146:J146"/>
     <mergeCell ref="K146:L146"/>
     <mergeCell ref="M146:O146"/>
     <mergeCell ref="F147:G147"/>
     <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="K147:O147"/>
     <mergeCell ref="F148:G148"/>
     <mergeCell ref="H148:J148"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:J163"/>
-    <mergeCell ref="K163:O163"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:J164"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:O164"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M149:O149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="A165:D165"/>
     <mergeCell ref="F165:G165"/>
     <mergeCell ref="H165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:O165"/>
+    <mergeCell ref="K165:O165"/>
+    <mergeCell ref="A166:D166"/>
     <mergeCell ref="F166:G166"/>
     <mergeCell ref="H166:J166"/>
-    <mergeCell ref="K166:O166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:O166"/>
     <mergeCell ref="F167:G167"/>
     <mergeCell ref="H167:J167"/>
     <mergeCell ref="K167:L167"/>
     <mergeCell ref="M167:O167"/>
     <mergeCell ref="F168:G168"/>
     <mergeCell ref="H168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:O168"/>
+    <mergeCell ref="K168:O168"/>
     <mergeCell ref="F169:G169"/>
     <mergeCell ref="H169:J169"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="H184:J184"/>
-    <mergeCell ref="K184:O184"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="H185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M169:O169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="H171:J171"/>
+    <mergeCell ref="A186:D186"/>
     <mergeCell ref="F186:G186"/>
     <mergeCell ref="H186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="K186:O186"/>
+    <mergeCell ref="A187:D187"/>
     <mergeCell ref="F187:G187"/>
     <mergeCell ref="H187:J187"/>
     <mergeCell ref="K187:L187"/>
     <mergeCell ref="M187:O187"/>
     <mergeCell ref="F188:G188"/>
     <mergeCell ref="H188:J188"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="K201:O201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:O202"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="H189:J189"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:O189"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="A203:D203"/>
     <mergeCell ref="F203:G203"/>
     <mergeCell ref="H203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:O203"/>
+    <mergeCell ref="K203:O203"/>
+    <mergeCell ref="A204:D204"/>
     <mergeCell ref="F204:G204"/>
     <mergeCell ref="H204:J204"/>
-    <mergeCell ref="K204:O204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="M204:O204"/>
     <mergeCell ref="F205:G205"/>
     <mergeCell ref="H205:J205"/>
     <mergeCell ref="K205:L205"/>
     <mergeCell ref="M205:O205"/>
     <mergeCell ref="F206:G206"/>
     <mergeCell ref="H206:J206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="M206:O206"/>
+    <mergeCell ref="K206:O206"/>
     <mergeCell ref="F207:G207"/>
     <mergeCell ref="H207:J207"/>
     <mergeCell ref="K207:L207"/>
     <mergeCell ref="M207:O207"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="H208:J208"/>
     <mergeCell ref="K208:L208"/>
     <mergeCell ref="M208:O208"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:J209"/>
     <mergeCell ref="K209:L209"/>
     <mergeCell ref="M209:O209"/>
     <mergeCell ref="K210:L210"/>
@@ -4513,30 +4755,43 @@
     <mergeCell ref="M212:O212"/>
     <mergeCell ref="K213:L213"/>
     <mergeCell ref="M213:O213"/>
-    <mergeCell ref="K214:O214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="M214:O214"/>
     <mergeCell ref="K215:L215"/>
     <mergeCell ref="M215:O215"/>
     <mergeCell ref="K216:L216"/>
     <mergeCell ref="M216:O216"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="K217:O217"/>
     <mergeCell ref="K218:L218"/>
     <mergeCell ref="M218:O218"/>
-    <mergeCell ref="K219:O219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="M219:O219"/>
     <mergeCell ref="K220:L220"/>
     <mergeCell ref="M220:O220"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="M221:O221"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="M222:O222"/>
+    <mergeCell ref="K223:L223"/>
+    <mergeCell ref="M223:O223"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="M224:O224"/>
+    <mergeCell ref="K225:O225"/>
+    <mergeCell ref="K226:L226"/>
+    <mergeCell ref="M226:O226"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="A41:O42"/>
     <mergeCell ref="A70:O71"/>
     <mergeCell ref="P70:R71"/>
-    <mergeCell ref="P75:R76"/>
-    <mergeCell ref="A106:O107"/>
-    <mergeCell ref="P106:R107"/>
-    <mergeCell ref="A140:O141"/>
-    <mergeCell ref="A161:O162"/>
-    <mergeCell ref="A182:O183"/>
-    <mergeCell ref="A199:O200"/>
+    <mergeCell ref="A107:O108"/>
+    <mergeCell ref="P107:R108"/>
+    <mergeCell ref="A142:O143"/>
+    <mergeCell ref="A163:O164"/>
+    <mergeCell ref="A184:O185"/>
+    <mergeCell ref="A201:O202"/>
+    <mergeCell ref="P113:R114"/>
+    <mergeCell ref="P76:R77"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22050" windowHeight="9120"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="通用申请" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -184,13 +184,25 @@
     <t>申请失败</t>
   </si>
   <si>
+    <t>pageCount</t>
+  </si>
+  <si>
+    <t>总页数</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
     <t>已审批</t>
   </si>
   <si>
-    <t>pageNum</t>
-  </si>
-  <si>
-    <t>页数</t>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>每页商品数量</t>
   </si>
   <si>
     <t>applyId</t>
@@ -200,12 +212,6 @@
   </si>
   <si>
     <t>审批状态</t>
-  </si>
-  <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>每页商品数量</t>
   </si>
   <si>
     <t>applyResult</t>
@@ -321,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -363,8 +369,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,18 +400,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,24 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,23 +441,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +465,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,20 +493,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,7 +544,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,151 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,60 +717,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -781,16 +739,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +784,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -813,149 +825,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,6 +1002,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1">
@@ -1343,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:R228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="M216" sqref="M216:O216"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="P128" sqref="P128:Q128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2165,7 +2180,7 @@
         <v>52</v>
       </c>
       <c r="Q72" s="10"/>
-      <c r="R72" s="12">
+      <c r="R72" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2201,7 +2216,7 @@
         <v>54</v>
       </c>
       <c r="Q73" s="10"/>
-      <c r="R73" s="12">
+      <c r="R73" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2233,16 +2248,16 @@
         <v>55</v>
       </c>
       <c r="Q74" s="10"/>
-      <c r="R74" s="12">
+      <c r="R74" s="13">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
         <v>14</v>
       </c>
@@ -2252,20 +2267,18 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="10" t="s">
+      <c r="K75" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
-      <c r="R75" s="12">
-        <v>13</v>
-      </c>
+      <c r="R75" s="13"/>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="4"/>
@@ -2274,28 +2287,28 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="L76" s="3"/>
-      <c r="M76" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
+      <c r="P76" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="4"/>
@@ -2304,24 +2317,26 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="9"/>
+      <c r="P77" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
     </row>
@@ -2332,30 +2347,26 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="12">
-        <v>20</v>
-      </c>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="4"/>
@@ -2363,26 +2374,26 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q79" s="10"/>
-      <c r="R79" s="12">
-        <v>21</v>
+      <c r="R79" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -2396,21 +2407,21 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11" t="s">
+      <c r="K80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="Q80" s="10"/>
-      <c r="R80" s="12">
-        <v>22</v>
+      <c r="R80" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -2424,18 +2435,22 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="10"/>
+      <c r="K81" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="Q81" s="10"/>
-      <c r="R81" s="12"/>
+      <c r="R81" s="13">
+        <v>22</v>
+      </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="4"/>
@@ -2449,17 +2464,17 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
-      <c r="R82" s="12"/>
+      <c r="R82" s="13"/>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="4"/>
@@ -2473,17 +2488,17 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="L83" s="3"/>
-      <c r="M83" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
+      <c r="M83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
-      <c r="R83" s="12"/>
+      <c r="R83" s="13"/>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="4"/>
@@ -2496,16 +2511,18 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
-      <c r="R84" s="12"/>
+      <c r="R84" s="13"/>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="4"/>
@@ -2519,17 +2536,15 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="L85" s="5"/>
-      <c r="M85" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
-      <c r="R85" s="12"/>
+      <c r="R85" s="13"/>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="4"/>
@@ -2543,17 +2558,17 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
-      <c r="R86" s="12"/>
+      <c r="R86" s="13"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="4"/>
@@ -2567,19 +2582,17 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
-      <c r="R87" s="12"/>
+      <c r="R87" s="13"/>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="4"/>
@@ -2593,19 +2606,19 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="O88" s="5"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
-      <c r="R88" s="12"/>
+      <c r="R88" s="13"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="4"/>
@@ -2619,17 +2632,19 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N89" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="O89" s="5"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
-      <c r="R89" s="12"/>
+      <c r="R89" s="13"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="4"/>
@@ -2642,16 +2657,18 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
+      <c r="K90" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
-      <c r="R90" s="12"/>
+      <c r="R90" s="13"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="4"/>
@@ -2665,44 +2682,44 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L91" s="7"/>
-      <c r="M91" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
-      <c r="R91" s="12"/>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="1" t="s">
+      <c r="R91" s="13"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="13"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2717,171 +2734,165 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="9"/>
+      <c r="P108" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2" t="s">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2" t="s">
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="10" t="s">
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="12">
+      <c r="Q110" s="10"/>
+      <c r="R110" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
-      <c r="A110" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="12">
-        <v>11</v>
-      </c>
-    </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F111" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q111" s="10"/>
-      <c r="R111" s="12">
+      <c r="R111" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
+      <c r="M112" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Q112" s="10"/>
-      <c r="R112" s="12">
+      <c r="L113" s="11"/>
+      <c r="M113" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q113" s="9"/>
-      <c r="R113" s="9"/>
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="4"/>
@@ -2890,24 +2901,24 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L114" s="3"/>
-      <c r="M114" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="9"/>
+      <c r="P114" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
     </row>
@@ -2917,31 +2928,27 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="F115" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
       <c r="K115" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q115" s="10"/>
-      <c r="R115" s="12">
-        <v>20</v>
-      </c>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="4"/>
@@ -2949,26 +2956,30 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+      <c r="F116" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
       <c r="K116" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q116" s="10"/>
-      <c r="R116" s="12">
-        <v>21</v>
+      <c r="R116" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -2977,26 +2988,26 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
       <c r="K117" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q117" s="10"/>
-      <c r="R117" s="12">
-        <v>22</v>
+      <c r="R117" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -3010,18 +3021,22 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N118" s="11"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="10"/>
+      <c r="K118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="Q118" s="10"/>
-      <c r="R118" s="12"/>
+      <c r="R118" s="13">
+        <v>22</v>
+      </c>
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="4"/>
@@ -3035,17 +3050,17 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
-      <c r="R119" s="12"/>
+      <c r="R119" s="13"/>
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="4"/>
@@ -3058,18 +3073,18 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
+      <c r="K120" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
-      <c r="R120" s="12"/>
+      <c r="R120" s="13"/>
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="4"/>
@@ -3083,17 +3098,17 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L121" s="3"/>
-      <c r="M121" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
+      <c r="M121" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
-      <c r="R121" s="12"/>
+      <c r="R121" s="13"/>
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="4"/>
@@ -3106,16 +3121,18 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
+      <c r="K122" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
-      <c r="R122" s="12"/>
+      <c r="R122" s="13"/>
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="4"/>
@@ -3128,18 +3145,18 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
+      <c r="K123" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L123" s="3"/>
+      <c r="M123" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
-      <c r="R123" s="12"/>
+      <c r="R123" s="13"/>
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="4"/>
@@ -3153,17 +3170,15 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L124" s="5"/>
-      <c r="M124" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="10"/>
       <c r="Q124" s="10"/>
-      <c r="R124" s="12"/>
+      <c r="R124" s="13"/>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="4"/>
@@ -3177,17 +3192,17 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="5" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="L125" s="5"/>
       <c r="M125" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="10"/>
       <c r="Q125" s="10"/>
-      <c r="R125" s="12"/>
+      <c r="R125" s="13"/>
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="4"/>
@@ -3201,17 +3216,17 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="10"/>
       <c r="Q126" s="10"/>
-      <c r="R126" s="12"/>
+      <c r="R126" s="13"/>
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="4"/>
@@ -3225,17 +3240,17 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="10"/>
       <c r="Q127" s="10"/>
-      <c r="R127" s="12"/>
+      <c r="R127" s="13"/>
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="4"/>
@@ -3248,16 +3263,18 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="7" t="s">
+      <c r="K128" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
       <c r="P128" s="10"/>
       <c r="Q128" s="10"/>
-      <c r="R128" s="12"/>
+      <c r="R128" s="13"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="4"/>
@@ -3270,175 +3287,179 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="7" t="s">
+      <c r="K129" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
-      <c r="R129" s="12"/>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
+      <c r="R129" s="13"/>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="13"/>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="13"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2" t="s">
+      <c r="G146" s="2"/>
+      <c r="H146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2" t="s">
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3" t="s">
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N146" s="3"/>
-      <c r="O146" s="3"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
+      <c r="M147" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+      <c r="K148" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
+      <c r="M148" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
     </row>
@@ -3449,11 +3470,11 @@
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="3" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -3470,176 +3491,176 @@
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2" t="s">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2" t="s">
+      <c r="G167" s="2"/>
+      <c r="H167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2" t="s">
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="A166" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3" t="s">
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F168" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
-    </row>
-    <row r="167" spans="1:15">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N167" s="3"/>
-      <c r="O167" s="3"/>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
+      <c r="K168" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
+      <c r="M168" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+      <c r="K169" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L169" s="3"/>
-      <c r="M169" s="3"/>
+      <c r="M169" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
     </row>
@@ -3650,11 +3671,11 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="3" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -3671,344 +3692,338 @@
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-    </row>
-    <row r="184" spans="1:15">
-      <c r="A184" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-    </row>
-    <row r="185" spans="1:15">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2" t="s">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F188" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2" t="s">
+      <c r="G188" s="2"/>
+      <c r="H188" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="K186" s="2" t="s">
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-    </row>
-    <row r="187" spans="1:15">
-      <c r="A187" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3" t="s">
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F189" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
-    </row>
-    <row r="188" spans="1:15">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
-    </row>
-    <row r="189" spans="1:15">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
       <c r="F190" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="4"/>
-    </row>
-    <row r="201" spans="1:15">
-      <c r="A201" s="1" t="s">
+      <c r="K190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-    </row>
-    <row r="202" spans="1:15">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2" t="s">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F203" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2" t="s">
+      <c r="G205" s="2"/>
+      <c r="H205" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2" t="s">
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-    </row>
-    <row r="204" spans="1:15">
-      <c r="A204" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3" t="s">
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="A206" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="F206" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
-    </row>
-    <row r="205" spans="1:15">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
-    </row>
-    <row r="206" spans="1:15">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
+      <c r="M206" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
       <c r="F207" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="L207" s="3"/>
       <c r="M207" s="3" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
@@ -4019,18 +4034,20 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
+      <c r="F208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
       <c r="K208" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L208" s="3"/>
-      <c r="M208" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
     </row>
@@ -4040,17 +4057,21 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="3"/>
+      <c r="F209" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
+      <c r="H209" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L209" s="3"/>
       <c r="M209" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
@@ -4061,17 +4082,17 @@
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-      <c r="I210" s="4"/>
-      <c r="J210" s="4"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
       <c r="K210" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L210" s="3"/>
       <c r="M210" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
@@ -4082,17 +4103,17 @@
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
       <c r="K211" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="L211" s="3"/>
       <c r="M211" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
@@ -4108,15 +4129,15 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L212" s="11"/>
-      <c r="M212" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N212" s="11"/>
-      <c r="O212" s="11"/>
+      <c r="K212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="4"/>
@@ -4130,11 +4151,11 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="L213" s="3"/>
       <c r="M213" s="3" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
@@ -4150,15 +4171,15 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
+      <c r="K214" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N214" s="12"/>
+      <c r="O214" s="12"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="4"/>
@@ -4172,14 +4193,14 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L215" s="3"/>
-      <c r="M215" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N215" s="11"/>
-      <c r="O215" s="11"/>
+      <c r="M215" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="4"/>
@@ -4193,14 +4214,14 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="3" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="L216" s="3"/>
-      <c r="M216" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N216" s="11"/>
-      <c r="O216" s="11"/>
+      <c r="M216" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="4"/>
@@ -4213,13 +4234,15 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="5" t="s">
+      <c r="K217" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L217" s="5"/>
-      <c r="M217" s="5"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="5"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N217" s="12"/>
+      <c r="O217" s="12"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="4"/>
@@ -4232,15 +4255,15 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L218" s="5"/>
-      <c r="M218" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N218" s="5"/>
-      <c r="O218" s="5"/>
+      <c r="K218" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L218" s="3"/>
+      <c r="M218" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N218" s="12"/>
+      <c r="O218" s="12"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="4"/>
@@ -4254,12 +4277,10 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L219" s="5"/>
-      <c r="M219" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="M219" s="5"/>
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
     </row>
@@ -4275,11 +4296,11 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="5" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="L220" s="5"/>
       <c r="M220" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
@@ -4296,11 +4317,11 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="L221" s="5"/>
       <c r="M221" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
@@ -4317,11 +4338,11 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="5" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="L222" s="5"/>
       <c r="M222" s="5" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
@@ -4338,11 +4359,11 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L223" s="5"/>
       <c r="M223" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
@@ -4359,11 +4380,11 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="5" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="L224" s="5"/>
       <c r="M224" s="5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="N224" s="5"/>
       <c r="O224" s="5"/>
@@ -4379,13 +4400,15 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L225" s="7"/>
-      <c r="M225" s="7"/>
-      <c r="N225" s="7"/>
-      <c r="O225" s="7"/>
+      <c r="K225" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N225" s="5"/>
+      <c r="O225" s="5"/>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="4"/>
@@ -4398,18 +4421,58 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L226" s="7"/>
-      <c r="M226" s="7" t="s">
+      <c r="K226" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5"/>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N226" s="7"/>
-      <c r="O226" s="7"/>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7"/>
+      <c r="N227" s="7"/>
+      <c r="O227" s="7"/>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N228" s="7"/>
+      <c r="O228" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="391">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4524,12 +4587,12 @@
     <mergeCell ref="P74:Q74"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:O75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="P76:Q76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:L77"/>
@@ -4538,7 +4601,8 @@
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
-    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:J79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="M79:O79"/>
     <mergeCell ref="P79:Q79"/>
@@ -4553,10 +4617,10 @@
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:O83"/>
-    <mergeCell ref="K84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="K85:O85"/>
     <mergeCell ref="P85:Q85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:O86"/>
@@ -4570,22 +4634,20 @@
     <mergeCell ref="K89:L89"/>
     <mergeCell ref="M89:O89"/>
     <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="K90:O90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:O90"/>
     <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="K91:O91"/>
     <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:O109"/>
-    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="P92:Q92"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="K110:O110"/>
     <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:D111"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="H111:J111"/>
     <mergeCell ref="K111:L111"/>
@@ -4593,24 +4655,28 @@
     <mergeCell ref="P111:Q111"/>
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K112:O112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
     <mergeCell ref="P112:Q112"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:J113"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
+    <mergeCell ref="P113:Q113"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="K114:O114"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="H115:J115"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
-    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:J116"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
     <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:J117"/>
     <mergeCell ref="K117:L117"/>
     <mergeCell ref="M117:O117"/>
     <mergeCell ref="P117:Q117"/>
@@ -4626,13 +4692,13 @@
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="M121:O121"/>
     <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="K122:O122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:O122"/>
     <mergeCell ref="P122:Q122"/>
     <mergeCell ref="K123:L123"/>
     <mergeCell ref="M123:O123"/>
     <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="K124:O124"/>
     <mergeCell ref="P124:Q124"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
@@ -4643,112 +4709,114 @@
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="M127:O127"/>
     <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="K128:O128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:O128"/>
     <mergeCell ref="P128:Q128"/>
     <mergeCell ref="K129:L129"/>
     <mergeCell ref="M129:O129"/>
     <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:O144"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:O145"/>
+    <mergeCell ref="K130:O130"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A146:D146"/>
     <mergeCell ref="F146:G146"/>
     <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="K146:O146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="F147:G147"/>
     <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:O147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="M147:O147"/>
     <mergeCell ref="F148:G148"/>
     <mergeCell ref="H148:J148"/>
     <mergeCell ref="K148:L148"/>
     <mergeCell ref="M148:O148"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:O149"/>
+    <mergeCell ref="K149:O149"/>
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="H150:J150"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:J165"/>
-    <mergeCell ref="K165:O165"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:O166"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="A167:D167"/>
     <mergeCell ref="F167:G167"/>
     <mergeCell ref="H167:J167"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M167:O167"/>
+    <mergeCell ref="K167:O167"/>
+    <mergeCell ref="A168:D168"/>
     <mergeCell ref="F168:G168"/>
     <mergeCell ref="H168:J168"/>
-    <mergeCell ref="K168:O168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:O168"/>
     <mergeCell ref="F169:G169"/>
     <mergeCell ref="H169:J169"/>
     <mergeCell ref="K169:L169"/>
     <mergeCell ref="M169:O169"/>
     <mergeCell ref="F170:G170"/>
     <mergeCell ref="H170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="K170:O170"/>
     <mergeCell ref="F171:G171"/>
     <mergeCell ref="H171:J171"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="H186:J186"/>
-    <mergeCell ref="K186:O186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:J187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="M171:O171"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:O172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="A188:D188"/>
     <mergeCell ref="F188:G188"/>
     <mergeCell ref="H188:J188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="K188:O188"/>
+    <mergeCell ref="A189:D189"/>
     <mergeCell ref="F189:G189"/>
     <mergeCell ref="H189:J189"/>
     <mergeCell ref="K189:L189"/>
     <mergeCell ref="M189:O189"/>
     <mergeCell ref="F190:G190"/>
     <mergeCell ref="H190:J190"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="H203:J203"/>
-    <mergeCell ref="K203:O203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="H204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:O190"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="M191:O191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="H192:J192"/>
+    <mergeCell ref="A205:D205"/>
     <mergeCell ref="F205:G205"/>
     <mergeCell ref="H205:J205"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="K205:O205"/>
+    <mergeCell ref="A206:D206"/>
     <mergeCell ref="F206:G206"/>
     <mergeCell ref="H206:J206"/>
-    <mergeCell ref="K206:O206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="M206:O206"/>
     <mergeCell ref="F207:G207"/>
     <mergeCell ref="H207:J207"/>
     <mergeCell ref="K207:L207"/>
     <mergeCell ref="M207:O207"/>
     <mergeCell ref="F208:G208"/>
     <mergeCell ref="H208:J208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="K208:O208"/>
     <mergeCell ref="F209:G209"/>
     <mergeCell ref="H209:J209"/>
     <mergeCell ref="K209:L209"/>
     <mergeCell ref="M209:O209"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="H210:J210"/>
     <mergeCell ref="K210:L210"/>
     <mergeCell ref="M210:O210"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="H211:J211"/>
     <mergeCell ref="K211:L211"/>
     <mergeCell ref="M211:O211"/>
     <mergeCell ref="K212:L212"/>
@@ -4761,11 +4829,11 @@
     <mergeCell ref="M215:O215"/>
     <mergeCell ref="K216:L216"/>
     <mergeCell ref="M216:O216"/>
-    <mergeCell ref="K217:O217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="M217:O217"/>
     <mergeCell ref="K218:L218"/>
     <mergeCell ref="M218:O218"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="M219:O219"/>
+    <mergeCell ref="K219:O219"/>
     <mergeCell ref="K220:L220"/>
     <mergeCell ref="M220:O220"/>
     <mergeCell ref="K221:L221"/>
@@ -4776,22 +4844,26 @@
     <mergeCell ref="M223:O223"/>
     <mergeCell ref="K224:L224"/>
     <mergeCell ref="M224:O224"/>
-    <mergeCell ref="K225:O225"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="M225:O225"/>
     <mergeCell ref="K226:L226"/>
     <mergeCell ref="M226:O226"/>
+    <mergeCell ref="K227:O227"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="M228:O228"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="A41:O42"/>
     <mergeCell ref="A70:O71"/>
     <mergeCell ref="P70:R71"/>
-    <mergeCell ref="A107:O108"/>
-    <mergeCell ref="P107:R108"/>
-    <mergeCell ref="A142:O143"/>
-    <mergeCell ref="A163:O164"/>
-    <mergeCell ref="A184:O185"/>
-    <mergeCell ref="A201:O202"/>
-    <mergeCell ref="P113:R114"/>
-    <mergeCell ref="P76:R77"/>
+    <mergeCell ref="A108:O109"/>
+    <mergeCell ref="P108:R109"/>
+    <mergeCell ref="P77:R78"/>
+    <mergeCell ref="A144:O145"/>
+    <mergeCell ref="A165:O166"/>
+    <mergeCell ref="A186:O187"/>
+    <mergeCell ref="A203:O204"/>
+    <mergeCell ref="P114:R115"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/通用申请接口.xlsx
+++ b/需求分析/接口文档/客户/通用申请接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="21930" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="通用申请" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -85,7 +85,7 @@
     <t>获取部门下的成员列表</t>
   </si>
   <si>
-    <t>/s/findMemberList.action</t>
+    <t>/s/listCommonMember.action</t>
   </si>
   <si>
     <t>部门成员的用户Id</t>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>部门成员的姓名</t>
-  </si>
-  <si>
-    <t>positionName</t>
-  </si>
-  <si>
-    <t>成员担任的职位</t>
   </si>
   <si>
     <t>发起通用申请</t>
@@ -327,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1358,10 +1352,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R228"/>
+  <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="P128" sqref="P128:Q128"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1741,31 +1735,27 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3" t="s">
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1782,100 +1772,104 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
@@ -1886,11 +1880,11 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -1969,15 +1963,13 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1991,10 +1983,12 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="3"/>
@@ -2024,7 +2018,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" ht="33" customHeight="1" spans="1:15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2034,32 +2028,30 @@
         <v>43</v>
       </c>
       <c r="G53" s="5"/>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" ht="33" customHeight="1" spans="1:15">
+    <row r="54" spans="1:15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2073,10 +2065,12 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="3"/>
@@ -2085,31 +2079,32 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="7" t="s">
+    <row r="69" spans="1:18">
+      <c r="A69" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2124,100 +2119,110 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="A72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
       <c r="P72" s="10" t="s">
         <v>52</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -2227,58 +2232,56 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="10" t="s">
+      <c r="K74" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
         <v>55</v>
       </c>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
-      <c r="R74" s="13">
-        <v>12</v>
-      </c>
+      <c r="R74" s="13"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="11" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11" t="s">
+      <c r="G75" s="8"/>
+      <c r="H75" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="10"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Q75" s="10"/>
-      <c r="R75" s="13"/>
+      <c r="R75" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="4"/>
@@ -2287,28 +2290,28 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="M76" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="13">
-        <v>13</v>
-      </c>
+      <c r="P76" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="4"/>
@@ -2316,27 +2319,25 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="F77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
     </row>
@@ -2346,13 +2347,9 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
@@ -2364,9 +2361,13 @@
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
+      <c r="P78" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="4"/>
@@ -2374,11 +2375,11 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
         <v>34</v>
       </c>
@@ -2389,11 +2390,11 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q79" s="10"/>
       <c r="R79" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -2407,21 +2408,21 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
+      <c r="K80" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
       <c r="P80" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q80" s="10"/>
       <c r="R80" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -2435,22 +2436,18 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="K81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
-      <c r="R81" s="13">
-        <v>22</v>
-      </c>
+      <c r="R81" s="13"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="4"/>
@@ -2464,11 +2461,11 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -2488,14 +2485,14 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="L83" s="3"/>
-      <c r="M83" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
+      <c r="M83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
       <c r="R83" s="13"/>
@@ -2511,15 +2508,13 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="3" t="s">
+      <c r="K84" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L84" s="3"/>
-      <c r="M84" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
       <c r="R84" s="13"/>
@@ -2536,10 +2531,12 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="5" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
+      <c r="M85" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="10"/>
@@ -2562,7 +2559,7 @@
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
@@ -2582,13 +2579,15 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N87" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="O87" s="5"/>
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
@@ -2606,14 +2605,14 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="O88" s="5"/>
       <c r="P88" s="10"/>
@@ -2632,15 +2631,13 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
@@ -2657,15 +2654,13 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
+      <c r="K90" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
       <c r="R90" s="13"/>
@@ -2682,44 +2677,44 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
       <c r="R91" s="13"/>
     </row>
-    <row r="92" spans="1:18">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="7" t="s">
+    <row r="107" spans="1:18">
+      <c r="A107" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="13"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2734,100 +2729,110 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="9"/>
+      <c r="A109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+      <c r="A110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
       <c r="P110" s="10" t="s">
         <v>52</v>
       </c>
       <c r="Q110" s="10"/>
       <c r="R110" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q111" s="10"/>
       <c r="R111" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -2837,62 +2842,58 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
+      <c r="K112" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
       <c r="P112" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q112" s="10"/>
       <c r="R112" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="11" t="s">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11" t="s">
+      <c r="G113" s="8"/>
+      <c r="H113" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q113" s="10"/>
-      <c r="R113" s="13">
-        <v>13</v>
-      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="4"/>
@@ -2901,24 +2902,24 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
+      <c r="M114" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
     </row>
@@ -2928,27 +2929,31 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="F115" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
       <c r="K115" s="3" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="9"/>
+      <c r="P115" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="4"/>
@@ -2956,13 +2961,9 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3" t="s">
@@ -2975,11 +2976,11 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q116" s="10"/>
       <c r="R116" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -2988,11 +2989,11 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
       <c r="K117" s="3" t="s">
         <v>34</v>
       </c>
@@ -3003,11 +3004,11 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q117" s="10"/>
       <c r="R117" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -3022,21 +3023,17 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="3" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
-      <c r="R118" s="13">
-        <v>22</v>
-      </c>
+      <c r="R118" s="13"/>
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="4"/>
@@ -3049,15 +3046,15 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
+      <c r="K119" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
       <c r="R119" s="13"/>
@@ -3073,15 +3070,15 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
+      <c r="K120" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
       <c r="R120" s="13"/>
@@ -3098,11 +3095,11 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -3122,14 +3119,14 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="L122" s="3"/>
-      <c r="M122" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
+      <c r="M122" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
       <c r="R122" s="13"/>
@@ -3145,15 +3142,13 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="3" t="s">
+      <c r="K123" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L123" s="3"/>
-      <c r="M123" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="13"/>
@@ -3170,10 +3165,12 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="5" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
+      <c r="M124" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="10"/>
@@ -3196,7 +3193,7 @@
       </c>
       <c r="L125" s="5"/>
       <c r="M125" s="5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
@@ -3216,11 +3213,11 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
@@ -3240,11 +3237,11 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
@@ -3264,11 +3261,11 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L128" s="5"/>
       <c r="M128" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
@@ -3287,15 +3284,13 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
+      <c r="K129" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
       <c r="R129" s="13"/>
@@ -3312,44 +3307,39 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
       <c r="N130" s="7"/>
       <c r="O130" s="7"/>
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
       <c r="R130" s="13"/>
     </row>
-    <row r="131" spans="1:18">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="13"/>
+    <row r="143" spans="1:15">
+      <c r="A143" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3366,100 +3356,104 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
+      <c r="A145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
+      <c r="A146" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L147" s="3"/>
       <c r="M147" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
       <c r="F148" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="K148" s="3"/>
       <c r="L148" s="3"/>
-      <c r="M148" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
     </row>
@@ -3470,11 +3464,11 @@
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -3491,11 +3485,11 @@
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -3512,45 +3506,41 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
-      <c r="O151" s="3"/>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3567,100 +3557,104 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
+      <c r="A166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
+      <c r="A167" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L168" s="3"/>
       <c r="M168" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
       <c r="F169" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="K169" s="3"/>
       <c r="L169" s="3"/>
-      <c r="M169" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
     </row>
@@ -3671,11 +3665,11 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -3692,11 +3686,11 @@
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -3713,45 +3707,41 @@
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
-      <c r="O172" s="3"/>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -3768,99 +3758,107 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
+      <c r="A187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
+      <c r="A188" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E189" s="3"/>
       <c r="F189" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
       <c r="F190" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L190" s="3"/>
       <c r="M190" s="3" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
@@ -3872,49 +3870,41 @@
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="3" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-    </row>
-    <row r="192" spans="1:15">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="3" t="s">
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -3931,100 +3921,106 @@
       <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
+      <c r="A204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
+      <c r="A205" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E206" s="3"/>
       <c r="F206" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L206" s="3"/>
       <c r="M206" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
       <c r="F207" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L207" s="3"/>
-      <c r="M207" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="M207" s="3"/>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
     </row>
@@ -4035,19 +4031,21 @@
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
+      <c r="M208" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
     </row>
@@ -4057,21 +4055,17 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
       <c r="K209" s="3" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L209" s="3"/>
       <c r="M209" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
@@ -4082,11 +4076,11 @@
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
       <c r="K210" s="3" t="s">
         <v>32</v>
       </c>
@@ -4103,11 +4097,11 @@
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
       <c r="K211" s="3" t="s">
         <v>34</v>
       </c>
@@ -4130,11 +4124,11 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="3" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="L212" s="3"/>
       <c r="M212" s="3" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
@@ -4150,15 +4144,15 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
+      <c r="K213" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L213" s="12"/>
+      <c r="M213" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N213" s="12"/>
+      <c r="O213" s="12"/>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="4"/>
@@ -4171,15 +4165,15 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L214" s="12"/>
-      <c r="M214" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N214" s="12"/>
-      <c r="O214" s="12"/>
+      <c r="K214" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="4"/>
@@ -4193,11 +4187,11 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L215" s="3"/>
       <c r="M215" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
@@ -4214,14 +4208,14 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="L216" s="3"/>
-      <c r="M216" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
+      <c r="M216" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N216" s="12"/>
+      <c r="O216" s="12"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="4"/>
@@ -4235,11 +4229,11 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="L217" s="3"/>
       <c r="M217" s="12" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="N217" s="12"/>
       <c r="O217" s="12"/>
@@ -4255,15 +4249,13 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L218" s="3"/>
-      <c r="M218" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N218" s="12"/>
-      <c r="O218" s="12"/>
+      <c r="K218" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5"/>
+      <c r="N218" s="5"/>
+      <c r="O218" s="5"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="4"/>
@@ -4277,10 +4269,12 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="5" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="L219" s="5"/>
-      <c r="M219" s="5"/>
+      <c r="M219" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
     </row>
@@ -4300,7 +4294,7 @@
       </c>
       <c r="L220" s="5"/>
       <c r="M220" s="5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
@@ -4317,11 +4311,11 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L221" s="5"/>
       <c r="M221" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
@@ -4338,11 +4332,11 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L222" s="5"/>
       <c r="M222" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
@@ -4359,11 +4353,11 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="L223" s="5"/>
       <c r="M223" s="5" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
@@ -4380,11 +4374,11 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="5" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L224" s="5"/>
       <c r="M224" s="5" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="N224" s="5"/>
       <c r="O224" s="5"/>
@@ -4401,11 +4395,11 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="5" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="L225" s="5"/>
       <c r="M225" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="N225" s="5"/>
       <c r="O225" s="5"/>
@@ -4421,15 +4415,13 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L226" s="5"/>
-      <c r="M226" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N226" s="5"/>
-      <c r="O226" s="5"/>
+      <c r="K226" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L226" s="7"/>
+      <c r="M226" s="7"/>
+      <c r="N226" s="7"/>
+      <c r="O226" s="7"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="4"/>
@@ -4443,36 +4435,17 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L227" s="7"/>
-      <c r="M227" s="7"/>
       <c r="N227" s="7"/>
       <c r="O227" s="7"/>
     </row>
-    <row r="228" spans="1:15">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-      <c r="I228" s="4"/>
-      <c r="J228" s="4"/>
-      <c r="K228" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L228" s="7"/>
-      <c r="M228" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N228" s="7"/>
-      <c r="O228" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="391">
+  <mergeCells count="389">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4515,24 +4488,26 @@
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:O28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:O43"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:O44"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="K45:O45"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:O46"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="K47:L47"/>
@@ -4545,11 +4520,11 @@
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:O49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="F50:J50"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:O50"/>
-    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:O51"/>
     <mergeCell ref="F52:G52"/>
@@ -4558,23 +4533,24 @@
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:O55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="P71:Q71"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:O72"/>
     <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:D73"/>
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
@@ -4584,15 +4560,14 @@
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="M74:O74"/>
-    <mergeCell ref="P74:Q74"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="P75:Q75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:L77"/>
@@ -4601,8 +4576,7 @@
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="P78:Q78"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="M79:O79"/>
     <mergeCell ref="P79:Q79"/>
@@ -4617,10 +4591,10 @@
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="K85:O85"/>
+    <mergeCell ref="K84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:O85"/>
     <mergeCell ref="P85:Q85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:O86"/>
@@ -4634,20 +4608,22 @@
     <mergeCell ref="K89:L89"/>
     <mergeCell ref="M89:O89"/>
     <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="K90:O90"/>
     <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="K91:O91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:O91"/>
     <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="P109:Q109"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
-    <mergeCell ref="K110:O110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="M110:O110"/>
     <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:D111"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="H111:J111"/>
     <mergeCell ref="K111:L111"/>
@@ -4660,23 +4636,21 @@
     <mergeCell ref="P112:Q112"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="M113:O113"/>
-    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="K113:O113"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:O114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:O114"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="H115:J115"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
+    <mergeCell ref="P115:Q115"/>
     <mergeCell ref="F116:G116"/>
     <mergeCell ref="H116:J116"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
     <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:J117"/>
     <mergeCell ref="K117:L117"/>
     <mergeCell ref="M117:O117"/>
     <mergeCell ref="P117:Q117"/>
@@ -4695,10 +4669,10 @@
     <mergeCell ref="K122:L122"/>
     <mergeCell ref="M122:O122"/>
     <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="K123:O123"/>
     <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="K124:O124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:O124"/>
     <mergeCell ref="P124:Q124"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
@@ -4712,71 +4686,72 @@
     <mergeCell ref="K128:L128"/>
     <mergeCell ref="M128:O128"/>
     <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="K129:O129"/>
     <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="K130:O130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:O130"/>
     <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="M131:O131"/>
-    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:O145"/>
     <mergeCell ref="A146:D146"/>
     <mergeCell ref="F146:G146"/>
     <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:O146"/>
-    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="M146:O146"/>
     <mergeCell ref="F147:G147"/>
     <mergeCell ref="H147:J147"/>
     <mergeCell ref="K147:L147"/>
     <mergeCell ref="M147:O147"/>
     <mergeCell ref="F148:G148"/>
     <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="K148:O148"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:O149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M149:O149"/>
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="H150:J150"/>
     <mergeCell ref="K150:L150"/>
     <mergeCell ref="M150:O150"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="K166:O166"/>
     <mergeCell ref="A167:D167"/>
     <mergeCell ref="F167:G167"/>
     <mergeCell ref="H167:J167"/>
-    <mergeCell ref="K167:O167"/>
-    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:O167"/>
     <mergeCell ref="F168:G168"/>
     <mergeCell ref="H168:J168"/>
     <mergeCell ref="K168:L168"/>
     <mergeCell ref="M168:O168"/>
     <mergeCell ref="F169:G169"/>
     <mergeCell ref="H169:J169"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M169:O169"/>
+    <mergeCell ref="K169:O169"/>
     <mergeCell ref="F170:G170"/>
     <mergeCell ref="H170:J170"/>
-    <mergeCell ref="K170:O170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:O170"/>
     <mergeCell ref="F171:G171"/>
     <mergeCell ref="H171:J171"/>
     <mergeCell ref="K171:L171"/>
     <mergeCell ref="M171:O171"/>
     <mergeCell ref="F172:G172"/>
     <mergeCell ref="H172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:O172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:J187"/>
+    <mergeCell ref="K187:O187"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="F188:G188"/>
     <mergeCell ref="H188:J188"/>
-    <mergeCell ref="K188:O188"/>
-    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:O188"/>
     <mergeCell ref="F189:G189"/>
     <mergeCell ref="H189:J189"/>
     <mergeCell ref="K189:L189"/>
@@ -4787,26 +4762,26 @@
     <mergeCell ref="M190:O190"/>
     <mergeCell ref="F191:G191"/>
     <mergeCell ref="H191:J191"/>
-    <mergeCell ref="K191:L191"/>
-    <mergeCell ref="M191:O191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="H192:J192"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="H204:J204"/>
+    <mergeCell ref="K204:O204"/>
     <mergeCell ref="A205:D205"/>
     <mergeCell ref="F205:G205"/>
     <mergeCell ref="H205:J205"/>
-    <mergeCell ref="K205:O205"/>
-    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:O205"/>
     <mergeCell ref="F206:G206"/>
     <mergeCell ref="H206:J206"/>
     <mergeCell ref="K206:L206"/>
     <mergeCell ref="M206:O206"/>
     <mergeCell ref="F207:G207"/>
     <mergeCell ref="H207:J207"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="K207:O207"/>
     <mergeCell ref="F208:G208"/>
     <mergeCell ref="H208:J208"/>
-    <mergeCell ref="K208:O208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M208:O208"/>
     <mergeCell ref="F209:G209"/>
     <mergeCell ref="H209:J209"/>
     <mergeCell ref="K209:L209"/>
@@ -4815,8 +4790,6 @@
     <mergeCell ref="H210:J210"/>
     <mergeCell ref="K210:L210"/>
     <mergeCell ref="M210:O210"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:J211"/>
     <mergeCell ref="K211:L211"/>
     <mergeCell ref="M211:O211"/>
     <mergeCell ref="K212:L212"/>
@@ -4831,9 +4804,9 @@
     <mergeCell ref="M216:O216"/>
     <mergeCell ref="K217:L217"/>
     <mergeCell ref="M217:O217"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="M218:O218"/>
-    <mergeCell ref="K219:O219"/>
+    <mergeCell ref="K218:O218"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="M219:O219"/>
     <mergeCell ref="K220:L220"/>
     <mergeCell ref="M220:O220"/>
     <mergeCell ref="K221:L221"/>
@@ -4846,24 +4819,22 @@
     <mergeCell ref="M224:O224"/>
     <mergeCell ref="K225:L225"/>
     <mergeCell ref="M225:O225"/>
-    <mergeCell ref="K226:L226"/>
-    <mergeCell ref="M226:O226"/>
-    <mergeCell ref="K227:O227"/>
-    <mergeCell ref="K228:L228"/>
-    <mergeCell ref="M228:O228"/>
+    <mergeCell ref="K226:O226"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="M227:O227"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
-    <mergeCell ref="A41:O42"/>
-    <mergeCell ref="A70:O71"/>
-    <mergeCell ref="P70:R71"/>
-    <mergeCell ref="A108:O109"/>
-    <mergeCell ref="P108:R109"/>
-    <mergeCell ref="P77:R78"/>
-    <mergeCell ref="A144:O145"/>
-    <mergeCell ref="A165:O166"/>
-    <mergeCell ref="A186:O187"/>
-    <mergeCell ref="A203:O204"/>
-    <mergeCell ref="P114:R115"/>
+    <mergeCell ref="A40:O41"/>
+    <mergeCell ref="A69:O70"/>
+    <mergeCell ref="P69:R70"/>
+    <mergeCell ref="A107:O108"/>
+    <mergeCell ref="P107:R108"/>
+    <mergeCell ref="P76:R77"/>
+    <mergeCell ref="A143:O144"/>
+    <mergeCell ref="A164:O165"/>
+    <mergeCell ref="A185:O186"/>
+    <mergeCell ref="A202:O203"/>
+    <mergeCell ref="P113:R114"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
